--- a/performance-measurements.xlsx
+++ b/performance-measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/cpp-remove-entities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E80504-ACDE-674E-BF8D-1458DC7E936D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37BB8E-B2B8-FD49-8652-D02A68B5A7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{9350DD4D-C0D7-D049-86EC-11D23DCA51E7}"/>
   </bookViews>
@@ -304,22 +304,25 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76400000000000001</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.49</c:v>
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.38</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.52</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,22 +1498,25 @@
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76400000000000001</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.49</c:v>
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.38</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.52</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CABD1E-E4DF-164D-8791-5A9D183EC259}">
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3503,22 +3509,25 @@
         <v>0.44</v>
       </c>
       <c r="H6">
-        <v>0.76400000000000001</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="I6">
-        <v>1.49</v>
+        <v>1.43</v>
+      </c>
+      <c r="J6">
+        <v>1.57</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="L6">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M6">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">

--- a/performance-measurements.xlsx
+++ b/performance-measurements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhultonharrop/Documents/Projects/cpp-remove-entities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37BB8E-B2B8-FD49-8652-D02A68B5A7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE3AB0-DBEE-544F-9BE2-C02478E352FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{9350DD4D-C0D7-D049-86EC-11D23DCA51E7}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" activeTab="1" xr2:uid="{9350DD4D-C0D7-D049-86EC-11D23DCA51E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Algo</t>
   </si>
@@ -70,6 +71,15 @@
   </si>
   <si>
     <t>6mb</t>
+  </si>
+  <si>
+    <t>erase-reverse-index</t>
+  </si>
+  <si>
+    <t>copy-for</t>
+  </si>
+  <si>
+    <t>copy-algo</t>
   </si>
 </sst>
 </file>
@@ -1882,6 +1892,4417 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>BigO(h Yes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>copy-for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4749-5842-A3FB-75DF3EC78645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>copy-algo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4749-5842-A3FB-75DF3EC78645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>swap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4749-5842-A3FB-75DF3EC78645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>remove</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$10:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4749-5842-A3FB-75DF3EC78645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$11:$AA$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4749-5842-A3FB-75DF3EC78645}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1653868560"/>
+        <c:axId val="1653870192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1653868560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653870192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1653870192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653868560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>BigO(h</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> No)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>erase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$Y$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7830</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8819</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5D4-EA45-BDBD-5AE859A32003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>erase-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$Y$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2316</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3838</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4741</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5234</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5D4-EA45-BDBD-5AE859A32003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>copy-for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F5D4-EA45-BDBD-5AE859A32003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>copy-algo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F5D4-EA45-BDBD-5AE859A32003}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1628322928"/>
+        <c:axId val="1654848736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1628322928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1654848736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1654848736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628322928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>erase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7830</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8819</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13190</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14456</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>erase-reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$AA$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2316</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3838</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4741</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5234</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6289</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>erase-reverse-index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4756</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5230</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6291</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>copy-for</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>copy-algo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>swap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>remove</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$10:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>partition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$11:$AA$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-105E-D740-9EB0-6902908E670C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1531441744"/>
+        <c:axId val="1653790048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1531441744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653790048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1653790048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1531441744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1962,6 +6383,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2975,6 +7516,1515 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3063,6 +9113,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168662</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>610622</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142953</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6764EB7-8487-6F4C-880C-AA447D3EE458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>118120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>594731</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>150438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB387A22-9656-344B-B433-549DACB395D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166FE4D6-939A-C64E-9CAE-6E1A2C19E126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3368,10 +9531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CABD1E-E4DF-164D-8791-5A9D183EC259}">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="C1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3667,7 +9830,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>9</v>
       </c>
@@ -3675,7 +9838,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -3683,12 +9846,753 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G19">
         <v>12000000</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD779C79-F3E8-174F-9F80-09A73A693A41}">
+  <dimension ref="B3:AA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>20000</v>
+      </c>
+      <c r="E3">
+        <v>30000</v>
+      </c>
+      <c r="F3">
+        <v>40000</v>
+      </c>
+      <c r="G3">
+        <v>50000</v>
+      </c>
+      <c r="H3">
+        <v>60000</v>
+      </c>
+      <c r="I3">
+        <v>70000</v>
+      </c>
+      <c r="J3">
+        <v>80000</v>
+      </c>
+      <c r="K3">
+        <v>90000</v>
+      </c>
+      <c r="L3">
+        <v>100000</v>
+      </c>
+      <c r="M3">
+        <v>110000</v>
+      </c>
+      <c r="N3">
+        <v>120000</v>
+      </c>
+      <c r="O3">
+        <v>130000</v>
+      </c>
+      <c r="P3">
+        <v>140000</v>
+      </c>
+      <c r="Q3">
+        <v>150000</v>
+      </c>
+      <c r="R3">
+        <v>160000</v>
+      </c>
+      <c r="S3">
+        <v>170000</v>
+      </c>
+      <c r="T3">
+        <v>180000</v>
+      </c>
+      <c r="U3">
+        <v>190000</v>
+      </c>
+      <c r="V3">
+        <v>200000</v>
+      </c>
+      <c r="W3">
+        <v>210000</v>
+      </c>
+      <c r="X3">
+        <v>220000</v>
+      </c>
+      <c r="Y3">
+        <v>230000</v>
+      </c>
+      <c r="Z3">
+        <v>240000</v>
+      </c>
+      <c r="AA3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>594</v>
+      </c>
+      <c r="H4">
+        <v>858</v>
+      </c>
+      <c r="I4">
+        <v>1165</v>
+      </c>
+      <c r="J4">
+        <v>1541</v>
+      </c>
+      <c r="K4">
+        <v>1932</v>
+      </c>
+      <c r="L4">
+        <v>2388</v>
+      </c>
+      <c r="M4">
+        <v>2881</v>
+      </c>
+      <c r="N4">
+        <v>3429</v>
+      </c>
+      <c r="O4">
+        <v>4100</v>
+      </c>
+      <c r="P4">
+        <v>4703</v>
+      </c>
+      <c r="Q4">
+        <v>5377</v>
+      </c>
+      <c r="R4">
+        <v>6145</v>
+      </c>
+      <c r="S4">
+        <v>6952</v>
+      </c>
+      <c r="T4">
+        <v>7830</v>
+      </c>
+      <c r="U4">
+        <v>8819</v>
+      </c>
+      <c r="V4">
+        <v>9788</v>
+      </c>
+      <c r="W4">
+        <v>10894</v>
+      </c>
+      <c r="X4">
+        <v>12139</v>
+      </c>
+      <c r="Y4">
+        <v>13190</v>
+      </c>
+      <c r="Z4">
+        <v>14456</v>
+      </c>
+      <c r="AA4">
+        <v>15587</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.111</v>
+      </c>
+      <c r="I5">
+        <v>575</v>
+      </c>
+      <c r="J5">
+        <v>753</v>
+      </c>
+      <c r="K5">
+        <v>957</v>
+      </c>
+      <c r="L5">
+        <v>1185</v>
+      </c>
+      <c r="M5">
+        <v>1428</v>
+      </c>
+      <c r="N5">
+        <v>1703</v>
+      </c>
+      <c r="O5">
+        <v>2009</v>
+      </c>
+      <c r="P5">
+        <v>2316</v>
+      </c>
+      <c r="Q5">
+        <v>2661</v>
+      </c>
+      <c r="R5">
+        <v>3032</v>
+      </c>
+      <c r="S5">
+        <v>3428</v>
+      </c>
+      <c r="T5">
+        <v>3838</v>
+      </c>
+      <c r="U5">
+        <v>4278</v>
+      </c>
+      <c r="V5">
+        <v>4741</v>
+      </c>
+      <c r="W5">
+        <v>5234</v>
+      </c>
+      <c r="X5">
+        <v>5755</v>
+      </c>
+      <c r="Y5">
+        <v>6289</v>
+      </c>
+      <c r="Z5">
+        <v>6980</v>
+      </c>
+      <c r="AA5">
+        <v>7489</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.112</v>
+      </c>
+      <c r="I6">
+        <v>574</v>
+      </c>
+      <c r="J6">
+        <v>758</v>
+      </c>
+      <c r="K6">
+        <v>955</v>
+      </c>
+      <c r="L6">
+        <v>1185</v>
+      </c>
+      <c r="M6">
+        <v>1432</v>
+      </c>
+      <c r="N6">
+        <v>1702</v>
+      </c>
+      <c r="O6">
+        <v>2000</v>
+      </c>
+      <c r="P6">
+        <v>2332</v>
+      </c>
+      <c r="Q6">
+        <v>2662</v>
+      </c>
+      <c r="R6">
+        <v>3033</v>
+      </c>
+      <c r="S6">
+        <v>3427</v>
+      </c>
+      <c r="T6">
+        <v>3848</v>
+      </c>
+      <c r="U6">
+        <v>4277</v>
+      </c>
+      <c r="V6">
+        <v>4756</v>
+      </c>
+      <c r="W6">
+        <v>5230</v>
+      </c>
+      <c r="X6">
+        <v>5752</v>
+      </c>
+      <c r="Y6">
+        <v>6291</v>
+      </c>
+      <c r="Z6">
+        <v>6972</v>
+      </c>
+      <c r="AA6">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.11</v>
+      </c>
+      <c r="I7">
+        <v>0.128</v>
+      </c>
+      <c r="J7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.184</v>
+      </c>
+      <c r="M7">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="V7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="W7">
+        <v>0.39</v>
+      </c>
+      <c r="X7">
+        <v>0.628</v>
+      </c>
+      <c r="Y7">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AA7">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.111</v>
+      </c>
+      <c r="I8">
+        <v>0.129</v>
+      </c>
+      <c r="J8">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.184</v>
+      </c>
+      <c r="M8">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.221</v>
+      </c>
+      <c r="O8">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="V8">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="W8">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="X8">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="Z8">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.06</v>
+      </c>
+      <c r="N9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="P9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="Q9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S9">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="U9">
+        <v>0.104</v>
+      </c>
+      <c r="V9">
+        <v>0.11</v>
+      </c>
+      <c r="W9">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.121</v>
+      </c>
+      <c r="Y9">
+        <v>0.127</v>
+      </c>
+      <c r="Z9">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.04</v>
+      </c>
+      <c r="N10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.05</v>
+      </c>
+      <c r="Q10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="T10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="V10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="W10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Y10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Z10">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AA10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R11">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.06</v>
+      </c>
+      <c r="T11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="U11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="V11">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="W11">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="X11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Y11">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Z11">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AA11">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
